--- a/Четвертый курс/Надежность ЭВМ/lab3.xlsx
+++ b/Четвертый курс/Надежность ЭВМ/lab3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\courses\institute\Четвертый курс\Надежность ЭВМ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E695EF-261E-443B-A03A-2DE6FD18844F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F7903C-D17C-4B7E-941A-98D7B3DD7F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -644,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -917,36 +909,6 @@
       <left style="thick">
         <color theme="5" tint="-0.24994659260841701"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thick">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </left>
       <right style="thick">
         <color theme="5" tint="-0.24994659260841701"/>
       </right>
@@ -994,6 +956,19 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1047,22 +1022,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1076,8 +1051,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1089,6 +1064,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1120,15 +1101,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1138,14 +1110,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2268,7 +2247,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$B$48</c:f>
+              <c:f>Лист2!$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2279,7 +2258,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$A$49:$A$52</c:f>
+              <c:f>Лист2!$A$37:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2300,7 +2279,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$B$49:$B$52</c:f>
+              <c:f>Лист2!$B$37:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2331,7 +2310,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$C$48</c:f>
+              <c:f>Лист2!$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2342,7 +2321,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$A$49:$A$52</c:f>
+              <c:f>Лист2!$A$37:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2363,7 +2342,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$C$49:$C$52</c:f>
+              <c:f>Лист2!$C$37:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2394,7 +2373,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$E$48</c:f>
+              <c:f>Лист2!$E$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2405,7 +2384,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$A$49:$A$52</c:f>
+              <c:f>Лист2!$A$37:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2426,7 +2405,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$E$49:$E$52</c:f>
+              <c:f>Лист2!$E$37:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2457,7 +2436,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$F$48</c:f>
+              <c:f>Лист2!$F$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2468,7 +2447,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$A$49:$A$52</c:f>
+              <c:f>Лист2!$A$37:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2489,7 +2468,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$F$49:$F$52</c:f>
+              <c:f>Лист2!$F$37:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3410,16 +3389,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47627</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>140452</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276524</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99332</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3442,8 +3421,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142876" y="1371600"/>
-          <a:ext cx="1397190" cy="371475"/>
+          <a:off x="3231698" y="748393"/>
+          <a:ext cx="1399112" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3454,15 +3433,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>524593</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>551807</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85783</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3486,8 +3465,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="7896225"/>
-          <a:ext cx="1124107" cy="419158"/>
+          <a:off x="7290707" y="4415518"/>
+          <a:ext cx="1126029" cy="419158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3503,16 +3482,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>78439</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>336974</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>423421</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52828</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3539,16 +3518,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>336175</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9603</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>183296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>67234</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:colOff>325769</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7203</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3719,15 +3698,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>87613</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>203973</xdr:rowOff>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>392413</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>36127</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3812,16 +3791,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>447675</xdr:colOff>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>443592</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>91168</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3866,16 +3845,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>476249</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>159204</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>224517</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3913,16 +3892,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>295985</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>154767</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>551800</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>88092</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3960,16 +3939,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>394607</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>118382</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>496660</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>78921</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4008,15 +3987,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>218898</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>2782</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:colOff>234338</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>158730</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4055,15 +4034,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>62</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>386443</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:colOff>415018</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4102,15 +4081,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>62</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:colOff>208190</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>77561</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>179615</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>68036</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4148,16 +4127,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>557892</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>136071</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
-          <xdr:row>68</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:colOff>439510</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>131989</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4655,8 +4634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4666,31 +4645,31 @@
   <sheetData>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="62"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="15">
         <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="15">
         <v>560000</v>
       </c>
@@ -4970,11 +4949,11 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
@@ -5308,29 +5287,29 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5343,69 +5322,69 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -5417,9 +5396,9 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
     </row>
     <row r="45" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
@@ -5629,19 +5608,19 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <f>(B43*D4*SUM(D7:D13)+D4*SUM(D7:D13))/2</f>
         <v>537697.6744186047</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <f>D5</f>
         <v>560000</v>
       </c>
@@ -5649,10 +5628,10 @@
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="57"/>
+      <c r="B51" s="74"/>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
@@ -5700,43 +5679,47 @@
       <c r="G57" s="56"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="57"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A70:D70"/>
     <mergeCell ref="A3:C3"/>
@@ -5753,10 +5736,6 @@
     <mergeCell ref="A41:E41"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5871,8 +5850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ73"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5884,10 +5863,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="15">
         <f>Лист1!D3</f>
         <v>3</v>
@@ -5910,10 +5889,10 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="18">
         <v>2.5</v>
       </c>
@@ -5936,10 +5915,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="15">
         <v>100</v>
       </c>
@@ -5965,38 +5944,38 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="15">
         <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10">
@@ -6128,32 +6107,32 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -6172,13 +6151,70 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
+      <c r="C33" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+    </row>
+    <row r="34" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="7"/>
@@ -6191,9 +6227,17 @@
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
+    <row r="35" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="E35" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="76"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
@@ -6207,19 +6251,25 @@
       <c r="AC35" s="7"/>
       <c r="AJ35" s="3"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
+    <row r="36" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -6232,20 +6282,29 @@
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
+    <row r="37" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="B37" s="50">
+        <f>(1+2*A37)/(1+2*A37+2*A37*A37)</f>
+        <v>0.99980396000784166</v>
+      </c>
+      <c r="C37" s="47">
+        <f>(1+A37)/(1+A37+A37*A37)</f>
+        <v>0.9999009999009999</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="E37" s="47">
+        <f>(1+2*A37)/(1+2*A37+A37*A37)</f>
+        <v>0.99990197039505935</v>
+      </c>
+      <c r="F37" s="47">
+        <f>(1+A37)/(1+A37+(1/2)*A37*A37)</f>
+        <v>0.99995049750012366</v>
+      </c>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="7"/>
@@ -6258,9 +6317,29 @@
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
+    <row r="38" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="B38" s="50">
+        <f t="shared" ref="B38:B40" si="4">(1+2*A38)/(1+2*A38+2*A38*A38)</f>
+        <v>0.98360655737704916</v>
+      </c>
+      <c r="C38" s="47">
+        <f t="shared" ref="C38:C40" si="5">(1+A38)/(1+A38+A38*A38)</f>
+        <v>0.99099099099099097</v>
+      </c>
+      <c r="D38" s="51"/>
+      <c r="E38" s="47">
+        <f t="shared" ref="E38:E40" si="6">(1+2*A38)/(1+2*A38+A38*A38)</f>
+        <v>0.99173553719008267</v>
+      </c>
+      <c r="F38" s="47">
+        <f t="shared" ref="F38:F40" si="7">(1+A38)/(1+A38+(1/2)*A38*A38)</f>
+        <v>0.99547511312217207</v>
+      </c>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
@@ -6273,9 +6352,29 @@
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
+    <row r="39" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27">
+        <v>1</v>
+      </c>
+      <c r="B39" s="50">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="C39" s="47">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="47">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="F39" s="47">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
@@ -6288,9 +6387,29 @@
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
+    <row r="40" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="27">
+        <v>10</v>
+      </c>
+      <c r="B40" s="50">
+        <f t="shared" si="4"/>
+        <v>9.5022624434389136E-2</v>
+      </c>
+      <c r="C40" s="47">
+        <f t="shared" si="5"/>
+        <v>9.90990990990991E-2</v>
+      </c>
+      <c r="D40" s="51"/>
+      <c r="E40" s="47">
+        <f t="shared" si="6"/>
+        <v>0.17355371900826447</v>
+      </c>
+      <c r="F40" s="47">
+        <f t="shared" si="7"/>
+        <v>0.18032786885245902</v>
+      </c>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
@@ -6303,9 +6422,11 @@
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q41" s="57"/>
-      <c r="R41" s="57"/>
+    <row r="41" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
@@ -6321,19 +6442,16 @@
       <c r="AE41" s="7"/>
       <c r="AF41" s="7"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
+    <row r="42" spans="1:36" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
@@ -6350,18 +6468,13 @@
       <c r="AF42" s="7"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="57"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
@@ -6378,8 +6491,13 @@
       <c r="AF43" s="7"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="59"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6393,16 +6511,13 @@
       <c r="AC44" s="7"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C45" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="57"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="59"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6415,9 +6530,9 @@
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
     </row>
-    <row r="46" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q46" s="57"/>
-      <c r="R46" s="57"/>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Q46" s="59"/>
+      <c r="R46" s="59"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6430,17 +6545,9 @@
       <c r="AB46" s="7"/>
       <c r="AC46" s="7"/>
     </row>
-    <row r="47" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="68"/>
-      <c r="E47" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="F47" s="68"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="57"/>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Q47" s="59"/>
+      <c r="R47" s="59"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
@@ -6453,25 +6560,9 @@
       <c r="AB47" s="7"/>
       <c r="AC47" s="7"/>
     </row>
-    <row r="48" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Q48" s="59"/>
+      <c r="R48" s="59"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -6484,29 +6575,9 @@
       <c r="AB48" s="7"/>
       <c r="AC48" s="7"/>
     </row>
-    <row r="49" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="B49" s="50">
-        <f>(1+2*A49)/(1+2*A49+2*A49*A49)</f>
-        <v>0.99980396000784166</v>
-      </c>
-      <c r="C49" s="47">
-        <f>(1+A49)/(1+A49+A49*A49)</f>
-        <v>0.9999009999009999</v>
-      </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="47">
-        <f>(1+2*A49)/(1+2*A49+A49*A49)</f>
-        <v>0.99990197039505935</v>
-      </c>
-      <c r="F49" s="47">
-        <f>(1+A49)/(1+A49+(1/2)*A49*A49)</f>
-        <v>0.99995049750012366</v>
-      </c>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Q49" s="59"/>
+      <c r="R49" s="59"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="7"/>
@@ -6519,29 +6590,9 @@
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
     </row>
-    <row r="50" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="B50" s="50">
-        <f t="shared" ref="B50:B52" si="4">(1+2*A50)/(1+2*A50+2*A50*A50)</f>
-        <v>0.98360655737704916</v>
-      </c>
-      <c r="C50" s="47">
-        <f t="shared" ref="C50:C52" si="5">(1+A50)/(1+A50+A50*A50)</f>
-        <v>0.99099099099099097</v>
-      </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="47">
-        <f t="shared" ref="E50:E52" si="6">(1+2*A50)/(1+2*A50+A50*A50)</f>
-        <v>0.99173553719008267</v>
-      </c>
-      <c r="F50" s="47">
-        <f t="shared" ref="F50:F52" si="7">(1+A50)/(1+A50+(1/2)*A50*A50)</f>
-        <v>0.99547511312217207</v>
-      </c>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6554,29 +6605,9 @@
       <c r="AB50" s="7"/>
       <c r="AC50" s="7"/>
     </row>
-    <row r="51" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27">
-        <v>1</v>
-      </c>
-      <c r="B51" s="50">
-        <f t="shared" si="4"/>
-        <v>0.6</v>
-      </c>
-      <c r="C51" s="47">
-        <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D51" s="51"/>
-      <c r="E51" s="47">
-        <f t="shared" si="6"/>
-        <v>0.75</v>
-      </c>
-      <c r="F51" s="47">
-        <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="7"/>
@@ -6589,29 +6620,19 @@
       <c r="AB51" s="7"/>
       <c r="AC51" s="7"/>
     </row>
-    <row r="52" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27">
-        <v>10</v>
-      </c>
-      <c r="B52" s="50">
-        <f t="shared" si="4"/>
-        <v>9.5022624434389136E-2</v>
-      </c>
-      <c r="C52" s="47">
-        <f t="shared" si="5"/>
-        <v>9.90990990990991E-2</v>
-      </c>
-      <c r="D52" s="51"/>
-      <c r="E52" s="47">
-        <f t="shared" si="6"/>
-        <v>0.17355371900826447</v>
-      </c>
-      <c r="F52" s="47">
-        <f t="shared" si="7"/>
-        <v>0.18032786885245902</v>
-      </c>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A52" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="7"/>
@@ -6631,11 +6652,9 @@
       <c r="AI52" s="7"/>
       <c r="AJ52" s="7"/>
     </row>
-    <row r="53" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="57"/>
+    <row r="53" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q53" s="59"/>
+      <c r="R53" s="59"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6655,16 +6674,25 @@
       <c r="AI53" s="7"/>
       <c r="AJ53" s="7"/>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A54" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="69"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="57"/>
+    <row r="54" spans="1:36" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="29">
+        <f>1/C2</f>
+        <v>0.4</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
@@ -6679,14 +6707,20 @@
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A55" s="69"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="Q55" s="57"/>
-      <c r="R55" s="57"/>
+    <row r="55" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D55" s="10">
+        <f>$B$54*(1+1/(2*C55))</f>
+        <v>20.400000000000002</v>
+      </c>
+      <c r="E55" s="10">
+        <f>$B$54*(1+1/C55)</f>
+        <v>40.400000000000006</v>
+      </c>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="59"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
@@ -6706,14 +6740,20 @@
       <c r="AI55" s="3"/>
       <c r="AJ55" s="3"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="Q56" s="57"/>
-      <c r="R56" s="57"/>
+    <row r="56" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D56" s="10">
+        <f>$B$54*(1+1/(2*C56))</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="E56" s="10">
+        <f>$B$54*(1+1/C56)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="59"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="7"/>
@@ -6728,14 +6768,20 @@
       <c r="AD56" s="7"/>
       <c r="AE56" s="7"/>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A57" s="69"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="Q57" s="57"/>
-      <c r="R57" s="57"/>
+    <row r="57" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="10">
+        <v>1</v>
+      </c>
+      <c r="D57" s="10">
+        <f>$B$54*(1+1/(2*C57))</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E57" s="10">
+        <f>$B$54*(1+1/C57)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
@@ -6750,9 +6796,20 @@
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q58" s="57"/>
-      <c r="R58" s="57"/>
+    <row r="58" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="10">
+        <v>10</v>
+      </c>
+      <c r="D58" s="10">
+        <f>$B$54*(1+1/(2*C58))</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="E58" s="10">
+        <f>$B$54*(1+1/C58)</f>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="59"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="7"/>
@@ -6767,9 +6824,9 @@
       <c r="AD58" s="7"/>
       <c r="AE58" s="7"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q59" s="57"/>
-      <c r="R59" s="57"/>
+    <row r="59" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q59" s="59"/>
+      <c r="R59" s="59"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="7"/>
@@ -6785,8 +6842,8 @@
       <c r="AE59" s="7"/>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="59"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="7"/>
@@ -6802,8 +6859,8 @@
       <c r="AE60" s="7"/>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q61" s="57"/>
-      <c r="R61" s="57"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="59"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="7"/>
@@ -6819,8 +6876,8 @@
       <c r="AE61" s="7"/>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q62" s="57"/>
-      <c r="R62" s="57"/>
+      <c r="Q62" s="59"/>
+      <c r="R62" s="59"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="7"/>
@@ -6836,8 +6893,8 @@
       <c r="AE62" s="7"/>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q63" s="57"/>
-      <c r="R63" s="57"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="59"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
@@ -6853,207 +6910,130 @@
       <c r="AE63" s="7"/>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A64" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B64" s="66"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="57"/>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="59"/>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
     </row>
-    <row r="65" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q65" s="57"/>
-      <c r="R65" s="57"/>
+    <row r="65" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q65" s="59"/>
+      <c r="R65" s="59"/>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66" s="29">
-        <f>1/C2</f>
-        <v>0.4</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="57"/>
+    <row r="66" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q66" s="59"/>
+      <c r="R66" s="59"/>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="D67" s="10">
-        <f>$B$66*(1+1/(2*C67))</f>
-        <v>20.400000000000002</v>
-      </c>
-      <c r="E67" s="10">
-        <f>$B$66*(1+1/C67)</f>
-        <v>40.400000000000006</v>
-      </c>
-      <c r="Q67" s="57"/>
-      <c r="R67" s="57"/>
+    <row r="67" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q67" s="59"/>
+      <c r="R67" s="59"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D68" s="10">
-        <f t="shared" ref="D68:D70" si="8">$B$66*(1+1/(2*C68))</f>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="E68" s="10">
-        <f t="shared" ref="E68:E70" si="9">$B$66*(1+1/C68)</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q68" s="57"/>
-      <c r="R68" s="57"/>
+    <row r="68" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q68" s="59"/>
+      <c r="R68" s="59"/>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="10">
-        <v>1</v>
-      </c>
-      <c r="D69" s="10">
-        <f t="shared" si="8"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E69" s="10">
-        <f t="shared" si="9"/>
-        <v>0.8</v>
-      </c>
-      <c r="Q69" s="57"/>
-      <c r="R69" s="57"/>
+    <row r="69" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q69" s="59"/>
+      <c r="R69" s="59"/>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="10">
-        <v>10</v>
-      </c>
-      <c r="D70" s="10">
-        <f t="shared" si="8"/>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="E70" s="10">
-        <f t="shared" si="9"/>
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="Q70" s="57"/>
-      <c r="R70" s="57"/>
+    <row r="70" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q70" s="59"/>
+      <c r="R70" s="59"/>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
     </row>
-    <row r="71" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="Q71" s="57"/>
-      <c r="R71" s="57"/>
+    <row r="71" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q71" s="59"/>
+      <c r="R71" s="59"/>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="Q72" s="57"/>
-      <c r="R72" s="57"/>
+    <row r="72" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q72" s="59"/>
+      <c r="R72" s="59"/>
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="Q73" s="57"/>
-      <c r="R73" s="57"/>
+    <row r="73" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q73" s="59"/>
+      <c r="R73" s="59"/>
       <c r="S73" s="3"/>
       <c r="T73" s="3"/>
       <c r="U73" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A64:H64"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="A54:E57"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="Q67:R67"/>
+  <mergeCells count="51">
+    <mergeCell ref="A42:C42"/>
     <mergeCell ref="Q73:R73"/>
     <mergeCell ref="Q68:R68"/>
     <mergeCell ref="Q69:R69"/>
     <mergeCell ref="Q70:R70"/>
     <mergeCell ref="Q71:R71"/>
     <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7191,16 +7171,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7216,16 +7196,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId17">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>333375</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7241,15 +7221,15 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId19">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -7266,16 +7246,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId21">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7292,15 +7272,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7317,15 +7297,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>333375</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7342,15 +7322,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>17</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7366,16 +7346,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId29">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7391,7 +7371,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AW37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
@@ -7402,7 +7382,7 @@
     <col min="19" max="48" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
@@ -7410,40 +7390,8 @@
         <v>3</v>
       </c>
       <c r="C1" s="52"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="76"/>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="75"/>
-    </row>
-    <row r="2" spans="1:49" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>15</v>
       </c>
@@ -7451,40 +7399,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="52"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76"/>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="76"/>
-      <c r="AS2" s="76"/>
-      <c r="AT2" s="76"/>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="76"/>
-      <c r="AW2" s="75"/>
-    </row>
-    <row r="3" spans="1:49" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>15</v>
       </c>
@@ -7492,120 +7408,24 @@
         <v>1</v>
       </c>
       <c r="C3" s="52"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="76"/>
-      <c r="AR3" s="76"/>
-      <c r="AS3" s="76"/>
-      <c r="AT3" s="76"/>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="76"/>
-      <c r="AW3" s="75"/>
-    </row>
-    <row r="4" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="76"/>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="75"/>
-    </row>
-    <row r="5" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>80</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="76"/>
-      <c r="AH5" s="76"/>
-      <c r="AI5" s="76"/>
-      <c r="AJ5" s="76"/>
-      <c r="AK5" s="76"/>
-      <c r="AL5" s="76"/>
-      <c r="AM5" s="76"/>
-      <c r="AN5" s="76"/>
-      <c r="AO5" s="76"/>
-      <c r="AP5" s="76"/>
-      <c r="AQ5" s="76"/>
-      <c r="AR5" s="76"/>
-      <c r="AS5" s="76"/>
-      <c r="AT5" s="76"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="75"/>
-    </row>
-    <row r="6" spans="1:49" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>69</v>
       </c>
@@ -7641,40 +7461,8 @@
         <v>7</v>
       </c>
       <c r="J6" s="30"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="76"/>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="76"/>
-      <c r="AN6" s="76"/>
-      <c r="AO6" s="76"/>
-      <c r="AP6" s="76"/>
-      <c r="AQ6" s="76"/>
-      <c r="AR6" s="76"/>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="76"/>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="76"/>
-      <c r="AW6" s="75"/>
-    </row>
-    <row r="7" spans="1:49" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>70</v>
       </c>
@@ -7711,40 +7499,8 @@
         <v>1.9841269841269841E-4</v>
       </c>
       <c r="J7" s="30"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="76"/>
-      <c r="AE7" s="76"/>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="76"/>
-      <c r="AH7" s="76"/>
-      <c r="AI7" s="76"/>
-      <c r="AJ7" s="76"/>
-      <c r="AK7" s="76"/>
-      <c r="AL7" s="76"/>
-      <c r="AM7" s="76"/>
-      <c r="AN7" s="76"/>
-      <c r="AO7" s="76"/>
-      <c r="AP7" s="76"/>
-      <c r="AQ7" s="76"/>
-      <c r="AR7" s="76"/>
-      <c r="AS7" s="76"/>
-      <c r="AT7" s="76"/>
-      <c r="AU7" s="76"/>
-      <c r="AV7" s="76"/>
-      <c r="AW7" s="75"/>
-    </row>
-    <row r="8" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>73</v>
       </c>
@@ -7780,155 +7536,24 @@
         <f>SUM(B7:I7)</f>
         <v>2.7182539682539684</v>
       </c>
-      <c r="R8" s="75"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="76"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="76"/>
-      <c r="AK8" s="76"/>
-      <c r="AL8" s="76"/>
-      <c r="AM8" s="76"/>
-      <c r="AN8" s="76"/>
-      <c r="AO8" s="76"/>
-      <c r="AP8" s="76"/>
-      <c r="AQ8" s="76"/>
-      <c r="AR8" s="76"/>
-      <c r="AS8" s="76"/>
-      <c r="AT8" s="76"/>
-      <c r="AU8" s="76"/>
-      <c r="AV8" s="76"/>
-      <c r="AW8" s="75"/>
-    </row>
-    <row r="9" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="R9" s="75"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="76"/>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="76"/>
-      <c r="AN9" s="76"/>
-      <c r="AO9" s="76"/>
-      <c r="AP9" s="76"/>
-      <c r="AQ9" s="76"/>
-      <c r="AR9" s="76"/>
-      <c r="AS9" s="76"/>
-      <c r="AT9" s="76"/>
-      <c r="AU9" s="76"/>
-      <c r="AV9" s="76"/>
-      <c r="AW9" s="75"/>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="R10" s="75"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="76"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="76"/>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="76"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="76"/>
-      <c r="AW10" s="75"/>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="76"/>
-      <c r="AH11" s="76"/>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="76"/>
-      <c r="AK11" s="76"/>
-      <c r="AL11" s="76"/>
-      <c r="AM11" s="76"/>
-      <c r="AN11" s="76"/>
-      <c r="AO11" s="76"/>
-      <c r="AP11" s="76"/>
-      <c r="AQ11" s="76"/>
-      <c r="AR11" s="76"/>
-      <c r="AS11" s="76"/>
-      <c r="AT11" s="76"/>
-      <c r="AU11" s="76"/>
-      <c r="AV11" s="76"/>
-      <c r="AW11" s="75"/>
-    </row>
-    <row r="12" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -7940,40 +7565,8 @@
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="76"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="76"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="76"/>
-      <c r="AQ12" s="76"/>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="76"/>
-      <c r="AT12" s="76"/>
-      <c r="AU12" s="76"/>
-      <c r="AV12" s="76"/>
-      <c r="AW12" s="75"/>
-    </row>
-    <row r="13" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
@@ -8001,40 +7594,8 @@
       <c r="I13" s="34"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="76"/>
-      <c r="AE13" s="76"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="76"/>
-      <c r="AH13" s="76"/>
-      <c r="AI13" s="76"/>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="76"/>
-      <c r="AM13" s="76"/>
-      <c r="AN13" s="76"/>
-      <c r="AO13" s="76"/>
-      <c r="AP13" s="76"/>
-      <c r="AQ13" s="76"/>
-      <c r="AR13" s="76"/>
-      <c r="AS13" s="76"/>
-      <c r="AT13" s="76"/>
-      <c r="AU13" s="76"/>
-      <c r="AV13" s="76"/>
-      <c r="AW13" s="75"/>
-    </row>
-    <row r="14" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -8069,40 +7630,8 @@
       <c r="I14" s="34"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="76"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76"/>
-      <c r="AS14" s="76"/>
-      <c r="AT14" s="76"/>
-      <c r="AU14" s="76"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="75"/>
-    </row>
-    <row r="15" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -8114,417 +7643,13 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="76"/>
-      <c r="AE15" s="76"/>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="76"/>
-      <c r="AH15" s="76"/>
-      <c r="AI15" s="76"/>
-      <c r="AJ15" s="76"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="76"/>
-      <c r="AN15" s="76"/>
-      <c r="AO15" s="76"/>
-      <c r="AP15" s="76"/>
-      <c r="AQ15" s="76"/>
-      <c r="AR15" s="76"/>
-      <c r="AS15" s="76"/>
-      <c r="AT15" s="76"/>
-      <c r="AU15" s="76"/>
-      <c r="AV15" s="76"/>
-      <c r="AW15" s="75"/>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="R16" s="75"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="76"/>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="76"/>
-      <c r="AE16" s="76"/>
-      <c r="AF16" s="76"/>
-      <c r="AG16" s="76"/>
-      <c r="AH16" s="76"/>
-      <c r="AI16" s="76"/>
-      <c r="AJ16" s="76"/>
-      <c r="AK16" s="76"/>
-      <c r="AL16" s="76"/>
-      <c r="AM16" s="76"/>
-      <c r="AN16" s="76"/>
-      <c r="AO16" s="76"/>
-      <c r="AP16" s="76"/>
-      <c r="AQ16" s="76"/>
-      <c r="AR16" s="76"/>
-      <c r="AS16" s="76"/>
-      <c r="AT16" s="76"/>
-      <c r="AU16" s="76"/>
-      <c r="AV16" s="76"/>
-      <c r="AW16" s="75"/>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="R17" s="75"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
-      <c r="AK17" s="76"/>
-      <c r="AL17" s="76"/>
-      <c r="AM17" s="76"/>
-      <c r="AN17" s="76"/>
-      <c r="AO17" s="76"/>
-      <c r="AP17" s="76"/>
-      <c r="AQ17" s="76"/>
-      <c r="AR17" s="76"/>
-      <c r="AS17" s="76"/>
-      <c r="AT17" s="76"/>
-      <c r="AU17" s="76"/>
-      <c r="AV17" s="76"/>
-      <c r="AW17" s="75"/>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="R18" s="75"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="76"/>
-      <c r="AH18" s="76"/>
-      <c r="AI18" s="76"/>
-      <c r="AJ18" s="76"/>
-      <c r="AK18" s="76"/>
-      <c r="AL18" s="76"/>
-      <c r="AM18" s="76"/>
-      <c r="AN18" s="76"/>
-      <c r="AO18" s="76"/>
-      <c r="AP18" s="76"/>
-      <c r="AQ18" s="76"/>
-      <c r="AR18" s="76"/>
-      <c r="AS18" s="76"/>
-      <c r="AT18" s="76"/>
-      <c r="AU18" s="76"/>
-      <c r="AV18" s="76"/>
-      <c r="AW18" s="75"/>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="R19" s="75"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="76"/>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="76"/>
-      <c r="AE19" s="76"/>
-      <c r="AF19" s="76"/>
-      <c r="AG19" s="76"/>
-      <c r="AH19" s="76"/>
-      <c r="AI19" s="76"/>
-      <c r="AJ19" s="76"/>
-      <c r="AK19" s="76"/>
-      <c r="AL19" s="76"/>
-      <c r="AM19" s="76"/>
-      <c r="AN19" s="76"/>
-      <c r="AO19" s="76"/>
-      <c r="AP19" s="76"/>
-      <c r="AQ19" s="76"/>
-      <c r="AR19" s="76"/>
-      <c r="AS19" s="76"/>
-      <c r="AT19" s="76"/>
-      <c r="AU19" s="76"/>
-      <c r="AV19" s="76"/>
-      <c r="AW19" s="75"/>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="R20" s="75"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="76"/>
-      <c r="AH20" s="76"/>
-      <c r="AI20" s="76"/>
-      <c r="AJ20" s="76"/>
-      <c r="AK20" s="76"/>
-      <c r="AL20" s="76"/>
-      <c r="AM20" s="76"/>
-      <c r="AN20" s="76"/>
-      <c r="AO20" s="76"/>
-      <c r="AP20" s="76"/>
-      <c r="AQ20" s="76"/>
-      <c r="AR20" s="76"/>
-      <c r="AS20" s="76"/>
-      <c r="AT20" s="76"/>
-      <c r="AU20" s="76"/>
-      <c r="AV20" s="76"/>
-      <c r="AW20" s="75"/>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="R21" s="75"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="76"/>
-      <c r="AC21" s="76"/>
-      <c r="AD21" s="76"/>
-      <c r="AE21" s="76"/>
-      <c r="AF21" s="76"/>
-      <c r="AG21" s="76"/>
-      <c r="AH21" s="76"/>
-      <c r="AI21" s="76"/>
-      <c r="AJ21" s="76"/>
-      <c r="AK21" s="76"/>
-      <c r="AL21" s="76"/>
-      <c r="AM21" s="76"/>
-      <c r="AN21" s="76"/>
-      <c r="AO21" s="76"/>
-      <c r="AP21" s="76"/>
-      <c r="AQ21" s="76"/>
-      <c r="AR21" s="76"/>
-      <c r="AS21" s="76"/>
-      <c r="AT21" s="76"/>
-      <c r="AU21" s="76"/>
-      <c r="AV21" s="76"/>
-      <c r="AW21" s="75"/>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="R22" s="75"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="76"/>
-      <c r="AC22" s="76"/>
-      <c r="AD22" s="76"/>
-      <c r="AE22" s="76"/>
-      <c r="AF22" s="76"/>
-      <c r="AG22" s="76"/>
-      <c r="AH22" s="76"/>
-      <c r="AI22" s="76"/>
-      <c r="AJ22" s="76"/>
-      <c r="AK22" s="76"/>
-      <c r="AL22" s="76"/>
-      <c r="AM22" s="76"/>
-      <c r="AN22" s="76"/>
-      <c r="AO22" s="76"/>
-      <c r="AP22" s="76"/>
-      <c r="AQ22" s="76"/>
-      <c r="AR22" s="76"/>
-      <c r="AS22" s="76"/>
-      <c r="AT22" s="76"/>
-      <c r="AU22" s="76"/>
-      <c r="AV22" s="76"/>
-      <c r="AW22" s="75"/>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="R23" s="75"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="76"/>
-      <c r="AC23" s="76"/>
-      <c r="AD23" s="76"/>
-      <c r="AE23" s="76"/>
-      <c r="AF23" s="76"/>
-      <c r="AG23" s="76"/>
-      <c r="AH23" s="76"/>
-      <c r="AI23" s="76"/>
-      <c r="AJ23" s="76"/>
-      <c r="AK23" s="76"/>
-      <c r="AL23" s="76"/>
-      <c r="AM23" s="76"/>
-      <c r="AN23" s="76"/>
-      <c r="AO23" s="76"/>
-      <c r="AP23" s="76"/>
-      <c r="AQ23" s="76"/>
-      <c r="AR23" s="76"/>
-      <c r="AS23" s="76"/>
-      <c r="AT23" s="76"/>
-      <c r="AU23" s="76"/>
-      <c r="AV23" s="76"/>
-      <c r="AW23" s="75"/>
-    </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="R24" s="75"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="76"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="76"/>
-      <c r="AA24" s="76"/>
-      <c r="AB24" s="76"/>
-      <c r="AC24" s="76"/>
-      <c r="AD24" s="76"/>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="76"/>
-      <c r="AH24" s="76"/>
-      <c r="AI24" s="76"/>
-      <c r="AJ24" s="76"/>
-      <c r="AK24" s="76"/>
-      <c r="AL24" s="76"/>
-      <c r="AM24" s="76"/>
-      <c r="AN24" s="76"/>
-      <c r="AO24" s="76"/>
-      <c r="AP24" s="76"/>
-      <c r="AQ24" s="76"/>
-      <c r="AR24" s="76"/>
-      <c r="AS24" s="76"/>
-      <c r="AT24" s="76"/>
-      <c r="AU24" s="76"/>
-      <c r="AV24" s="76"/>
-      <c r="AW24" s="75"/>
-    </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="R25" s="75"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="76"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="76"/>
-      <c r="W25" s="76"/>
-      <c r="X25" s="76"/>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="76"/>
-      <c r="AA25" s="76"/>
-      <c r="AB25" s="76"/>
-      <c r="AC25" s="76"/>
-      <c r="AD25" s="76"/>
-      <c r="AE25" s="76"/>
-      <c r="AF25" s="76"/>
-      <c r="AG25" s="76"/>
-      <c r="AH25" s="76"/>
-      <c r="AI25" s="76"/>
-      <c r="AJ25" s="76"/>
-      <c r="AK25" s="76"/>
-      <c r="AL25" s="76"/>
-      <c r="AM25" s="76"/>
-      <c r="AN25" s="76"/>
-      <c r="AO25" s="76"/>
-      <c r="AP25" s="76"/>
-      <c r="AQ25" s="76"/>
-      <c r="AR25" s="76"/>
-      <c r="AS25" s="76"/>
-      <c r="AT25" s="76"/>
-      <c r="AU25" s="76"/>
-      <c r="AV25" s="76"/>
-      <c r="AW25" s="75"/>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F26" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="R26" s="75"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="76"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="76"/>
-      <c r="Y26" s="76"/>
-      <c r="Z26" s="76"/>
-      <c r="AA26" s="76"/>
-      <c r="AB26" s="76"/>
-      <c r="AC26" s="76"/>
-      <c r="AD26" s="76"/>
-      <c r="AE26" s="76"/>
-      <c r="AF26" s="76"/>
-      <c r="AG26" s="76"/>
-      <c r="AH26" s="76"/>
-      <c r="AI26" s="76"/>
-      <c r="AJ26" s="76"/>
-      <c r="AK26" s="76"/>
-      <c r="AL26" s="76"/>
-      <c r="AM26" s="76"/>
-      <c r="AN26" s="76"/>
-      <c r="AO26" s="76"/>
-      <c r="AP26" s="76"/>
-      <c r="AQ26" s="76"/>
-      <c r="AR26" s="76"/>
-      <c r="AS26" s="76"/>
-      <c r="AT26" s="76"/>
-      <c r="AU26" s="76"/>
-      <c r="AV26" s="76"/>
-      <c r="AW26" s="75"/>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>71</v>
       </c>
@@ -8535,75 +7660,11 @@
         <f>B2/B3</f>
         <v>2</v>
       </c>
-      <c r="R27" s="75"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="76"/>
-      <c r="W27" s="76"/>
-      <c r="X27" s="76"/>
-      <c r="Y27" s="76"/>
-      <c r="Z27" s="76"/>
-      <c r="AA27" s="76"/>
-      <c r="AB27" s="76"/>
-      <c r="AC27" s="76"/>
-      <c r="AD27" s="76"/>
-      <c r="AE27" s="76"/>
-      <c r="AF27" s="76"/>
-      <c r="AG27" s="76"/>
-      <c r="AH27" s="76"/>
-      <c r="AI27" s="76"/>
-      <c r="AJ27" s="76"/>
-      <c r="AK27" s="76"/>
-      <c r="AL27" s="76"/>
-      <c r="AM27" s="76"/>
-      <c r="AN27" s="76"/>
-      <c r="AO27" s="76"/>
-      <c r="AP27" s="76"/>
-      <c r="AQ27" s="76"/>
-      <c r="AR27" s="76"/>
-      <c r="AS27" s="76"/>
-      <c r="AT27" s="76"/>
-      <c r="AU27" s="76"/>
-      <c r="AV27" s="76"/>
-      <c r="AW27" s="75"/>
-    </row>
-    <row r="28" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F28" s="37"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="76"/>
-      <c r="AA28" s="76"/>
-      <c r="AB28" s="76"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="76"/>
-      <c r="AF28" s="76"/>
-      <c r="AG28" s="76"/>
-      <c r="AH28" s="76"/>
-      <c r="AI28" s="76"/>
-      <c r="AJ28" s="76"/>
-      <c r="AK28" s="76"/>
-      <c r="AL28" s="76"/>
-      <c r="AM28" s="76"/>
-      <c r="AN28" s="76"/>
-      <c r="AO28" s="76"/>
-      <c r="AP28" s="76"/>
-      <c r="AQ28" s="76"/>
-      <c r="AR28" s="76"/>
-      <c r="AS28" s="76"/>
-      <c r="AT28" s="76"/>
-      <c r="AU28" s="76"/>
-      <c r="AV28" s="76"/>
-      <c r="AW28" s="75"/>
-    </row>
-    <row r="29" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>69</v>
       </c>
@@ -8638,40 +7699,8 @@
         <f t="shared" ref="I29" si="8">H29+1</f>
         <v>7</v>
       </c>
-      <c r="R29" s="75"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="76"/>
-      <c r="V29" s="76"/>
-      <c r="W29" s="76"/>
-      <c r="X29" s="76"/>
-      <c r="Y29" s="76"/>
-      <c r="Z29" s="76"/>
-      <c r="AA29" s="76"/>
-      <c r="AB29" s="76"/>
-      <c r="AC29" s="76"/>
-      <c r="AD29" s="76"/>
-      <c r="AE29" s="76"/>
-      <c r="AF29" s="76"/>
-      <c r="AG29" s="76"/>
-      <c r="AH29" s="76"/>
-      <c r="AI29" s="76"/>
-      <c r="AJ29" s="76"/>
-      <c r="AK29" s="76"/>
-      <c r="AL29" s="76"/>
-      <c r="AM29" s="76"/>
-      <c r="AN29" s="76"/>
-      <c r="AO29" s="76"/>
-      <c r="AP29" s="76"/>
-      <c r="AQ29" s="76"/>
-      <c r="AR29" s="76"/>
-      <c r="AS29" s="76"/>
-      <c r="AT29" s="76"/>
-      <c r="AU29" s="76"/>
-      <c r="AV29" s="76"/>
-      <c r="AW29" s="75"/>
-    </row>
-    <row r="30" spans="1:49" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>70</v>
       </c>
@@ -8707,40 +7736,8 @@
         <f t="shared" si="9"/>
         <v>2.5396825396825397E-2</v>
       </c>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="75"/>
-      <c r="U30" s="75"/>
-      <c r="V30" s="75"/>
-      <c r="W30" s="75"/>
-      <c r="X30" s="75"/>
-      <c r="Y30" s="75"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="75"/>
-      <c r="AB30" s="75"/>
-      <c r="AC30" s="75"/>
-      <c r="AD30" s="75"/>
-      <c r="AE30" s="75"/>
-      <c r="AF30" s="75"/>
-      <c r="AG30" s="75"/>
-      <c r="AH30" s="75"/>
-      <c r="AI30" s="75"/>
-      <c r="AJ30" s="75"/>
-      <c r="AK30" s="75"/>
-      <c r="AL30" s="75"/>
-      <c r="AM30" s="75"/>
-      <c r="AN30" s="75"/>
-      <c r="AO30" s="75"/>
-      <c r="AP30" s="75"/>
-      <c r="AQ30" s="75"/>
-      <c r="AR30" s="75"/>
-      <c r="AS30" s="75"/>
-      <c r="AT30" s="75"/>
-      <c r="AU30" s="75"/>
-      <c r="AV30" s="75"/>
-      <c r="AW30" s="75"/>
-    </row>
-    <row r="31" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -8777,7 +7774,7 @@
         <v>7.3809523809523805</v>
       </c>
     </row>
-    <row r="32" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>19</v>
       </c>

--- a/Четвертый курс/Надежность ЭВМ/lab3.xlsx
+++ b/Четвертый курс/Надежность ЭВМ/lab3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\courses\institute\Четвертый курс\Надежность ЭВМ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F7903C-D17C-4B7E-941A-98D7B3DD7F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7ED32E-034B-49AA-89EA-A49527E687F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1071,6 +1071,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1098,6 +1104,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1110,19 +1122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3162,16 +3162,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>371475</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>104042</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>295274</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>208817</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3798,9 +3798,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>443592</xdr:colOff>
+          <xdr:colOff>447675</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>91168</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3846,13 +3846,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>476249</xdr:colOff>
+          <xdr:colOff>476250</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>159204</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>224517</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
@@ -3893,15 +3893,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>295985</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>154767</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>19</xdr:col>
-          <xdr:colOff>551800</xdr:colOff>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>88092</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3940,15 +3940,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>394607</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>118382</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>496660</xdr:colOff>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>78921</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3987,15 +3987,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>218898</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>2782</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>234338</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>158730</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4034,13 +4034,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>386443</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>415018</xdr:colOff>
+          <xdr:colOff>419100</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
@@ -4081,15 +4081,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>208190</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>77561</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>179615</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>68036</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4128,15 +4128,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>557892</xdr:colOff>
+          <xdr:colOff>561975</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>136071</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>439510</xdr:colOff>
+          <xdr:colOff>438150</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>131989</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4634,8 +4634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R70"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4645,31 +4645,31 @@
   <sheetData>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="64"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="15">
         <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="15">
         <v>560000</v>
       </c>
@@ -4949,11 +4949,11 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
@@ -5287,29 +5287,29 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5322,69 +5322,69 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -5396,9 +5396,9 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
     </row>
     <row r="45" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
@@ -5628,10 +5628,10 @@
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="74" t="s">
+      <c r="A51" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="74"/>
+      <c r="B51" s="70"/>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
@@ -5679,48 +5679,43 @@
       <c r="G57" s="56"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A68:H68"/>
     <mergeCell ref="A70:D70"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
@@ -5736,6 +5731,11 @@
     <mergeCell ref="A41:E41"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A68:H68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5823,16 +5823,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5850,8 +5850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23:J23"/>
+    <sheetView topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5863,10 +5863,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="75"/>
       <c r="C1" s="15">
         <f>Лист1!D3</f>
         <v>3</v>
@@ -5889,10 +5889,10 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="18">
         <v>2.5</v>
       </c>
@@ -5915,10 +5915,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="71"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="15">
         <v>100</v>
       </c>
@@ -5944,38 +5944,38 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="71"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="71"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="15">
         <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10">
@@ -6107,32 +6107,32 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -6209,12 +6209,12 @@
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
     </row>
     <row r="34" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="7"/>
@@ -6228,16 +6228,16 @@
       <c r="AC34" s="7"/>
     </row>
     <row r="35" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="E35" s="75" t="s">
+      <c r="C35" s="60"/>
+      <c r="E35" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="76"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
+      <c r="F35" s="60"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
@@ -6268,8 +6268,8 @@
       <c r="F36" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -6303,8 +6303,8 @@
         <f>(1+A37)/(1+A37+(1/2)*A37*A37)</f>
         <v>0.99995049750012366</v>
       </c>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="7"/>
@@ -6338,8 +6338,8 @@
         <f t="shared" ref="F38:F40" si="7">(1+A38)/(1+A38+(1/2)*A38*A38)</f>
         <v>0.99547511312217207</v>
       </c>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
@@ -6373,8 +6373,8 @@
         <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
@@ -6408,8 +6408,8 @@
         <f t="shared" si="7"/>
         <v>0.18032786885245902</v>
       </c>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
@@ -6425,8 +6425,8 @@
     <row r="41" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
@@ -6443,15 +6443,15 @@
       <c r="AF41" s="7"/>
     </row>
     <row r="42" spans="1:36" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
@@ -6473,8 +6473,8 @@
       <c r="C43" s="57"/>
       <c r="D43" s="57"/>
       <c r="E43" s="57"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
@@ -6496,8 +6496,8 @@
       <c r="C44" s="57"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6516,8 +6516,8 @@
       <c r="C45" s="57"/>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6531,8 +6531,8 @@
       <c r="AC45" s="7"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6546,8 +6546,8 @@
       <c r="AC46" s="7"/>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
@@ -6561,8 +6561,8 @@
       <c r="AC47" s="7"/>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -6576,8 +6576,8 @@
       <c r="AC48" s="7"/>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="7"/>
@@ -6591,8 +6591,8 @@
       <c r="AC49" s="7"/>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6606,8 +6606,8 @@
       <c r="AC50" s="7"/>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="7"/>
@@ -6621,18 +6621,18 @@
       <c r="AC51" s="7"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A52" s="68" t="s">
+      <c r="A52" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="7"/>
@@ -6653,8 +6653,8 @@
       <c r="AJ52" s="7"/>
     </row>
     <row r="53" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6691,8 +6691,8 @@
       <c r="E54" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
@@ -6719,8 +6719,8 @@
         <f>$B$54*(1+1/C55)</f>
         <v>40.400000000000006</v>
       </c>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="59"/>
+      <c r="Q55" s="61"/>
+      <c r="R55" s="61"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
@@ -6752,8 +6752,8 @@
         <f>$B$54*(1+1/C56)</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="7"/>
@@ -6780,8 +6780,8 @@
         <f>$B$54*(1+1/C57)</f>
         <v>0.8</v>
       </c>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="59"/>
+      <c r="Q57" s="61"/>
+      <c r="R57" s="61"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
@@ -6808,8 +6808,8 @@
         <f>$B$54*(1+1/C58)</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="59"/>
+      <c r="Q58" s="61"/>
+      <c r="R58" s="61"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="7"/>
@@ -6825,8 +6825,8 @@
       <c r="AE58" s="7"/>
     </row>
     <row r="59" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="61"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="7"/>
@@ -6842,8 +6842,8 @@
       <c r="AE59" s="7"/>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q60" s="59"/>
-      <c r="R60" s="59"/>
+      <c r="Q60" s="61"/>
+      <c r="R60" s="61"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="7"/>
@@ -6859,8 +6859,8 @@
       <c r="AE60" s="7"/>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q61" s="59"/>
-      <c r="R61" s="59"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="61"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="7"/>
@@ -6876,8 +6876,8 @@
       <c r="AE61" s="7"/>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q62" s="59"/>
-      <c r="R62" s="59"/>
+      <c r="Q62" s="61"/>
+      <c r="R62" s="61"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="7"/>
@@ -6893,8 +6893,8 @@
       <c r="AE62" s="7"/>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q63" s="59"/>
-      <c r="R63" s="59"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="61"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
@@ -6910,58 +6910,58 @@
       <c r="AE63" s="7"/>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q64" s="59"/>
-      <c r="R64" s="59"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="61"/>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
     </row>
     <row r="65" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
     </row>
     <row r="66" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
     </row>
     <row r="67" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q67" s="59"/>
-      <c r="R67" s="59"/>
+      <c r="Q67" s="61"/>
+      <c r="R67" s="61"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
     </row>
     <row r="68" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q68" s="59"/>
-      <c r="R68" s="59"/>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="61"/>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
     </row>
     <row r="69" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q69" s="59"/>
-      <c r="R69" s="59"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="61"/>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
     </row>
     <row r="70" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q70" s="59"/>
-      <c r="R70" s="59"/>
+      <c r="Q70" s="61"/>
+      <c r="R70" s="61"/>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
     </row>
     <row r="71" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q71" s="59"/>
-      <c r="R71" s="59"/>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="61"/>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
@@ -6969,20 +6969,55 @@
       <c r="W71" s="3"/>
     </row>
     <row r="72" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="61"/>
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
     </row>
     <row r="73" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q73" s="59"/>
-      <c r="R73" s="59"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="61"/>
       <c r="S73" s="3"/>
       <c r="T73" s="3"/>
       <c r="U73" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="Q57:R57"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="Q73:R73"/>
     <mergeCell ref="Q68:R68"/>
@@ -6999,41 +7034,6 @@
     <mergeCell ref="Q59:R59"/>
     <mergeCell ref="Q60:R60"/>
     <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7373,8 +7373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7539,19 +7539,19 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
